--- a/Список_студентов.xlsx
+++ b/Список_студентов.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,30 +538,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Королёв</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Русланович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12357</t>
+          <t>12359</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Многодетная семья</t>
+          <t>Отличник (аттестат с отличием)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -586,36 +586,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>22.07.2025</t>
+          <t>21.07.2025</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22.07.2025</t>
+          <t>31.07.2025</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Рекомендация учителей/родителей</t>
+          <t>Социальные сети</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>+7-949-455-38-17</t>
+          <t>+7-949-332-92-94</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Виталина</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>+7-900-261-01-40</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
+          <t>+7-949-332-92-93</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Крутой</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -625,30 +629,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Королёв</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Русланович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Золотая медаль</t>
+          <t>Волонтер (более 100 часов)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -658,7 +662,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Макеевка</t>
+          <t>Донецк</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -668,43 +672,130 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>МБОУ 58</t>
+          <t>МБОУ 32</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21.07.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31.07.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Социальные сети</t>
+          <t>Поисковые системы (Google, Яндекс)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>+7-949-332-92-94</t>
+          <t>+7-949-455-38-17</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Виталина</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>+7-949-332-92-93</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Крутой</t>
+          <t>+7-900-261-01-40</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Королёва</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09.03.01</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ГТО (золотой знак)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>МБОУ Школа 21</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>19.07.2025</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20.07.2025</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>+7-910-180-79-21</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Оксана</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>+7-910-180-79-21</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Лучшая самая</t>
         </is>
       </c>
     </row>

--- a/Список_студентов.xlsx
+++ b/Список_студентов.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,70 +461,85 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Форма обучения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Рейтинг</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Льгота</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Оригинал</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Регион</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Город</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Общежитие</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Учебное заведение</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Дата подачи</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Дата посещения</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Откуда узнал/а</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Профиль ВК</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Родитель</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Кем приходится</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Телефон родителя</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Примечание</t>
         </is>
@@ -553,71 +568,90 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12359</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>220</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Отличник (аттестат с отличием)</t>
-        </is>
+          <t>93214510</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>289</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Макеевка</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>МБОУ 58</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>21.07.2025</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31.07.2025</t>
+          <t>МБОУ "СШ №58"</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Социальные сети</t>
+          <t>01.07.2025</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>+7-949-332-92-94</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>badron.korol</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Анна</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>+7-949-332-92-93</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Крутой</t>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Ходил в ДонМАН</t>
         </is>
       </c>
     </row>
@@ -629,84 +663,107 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Королёва</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Русланович</t>
+          <t>Сергеевна</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12400</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>207</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Волонтер (более 100 часов)</t>
-        </is>
+          <t>93214511</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>284</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Творческие достижения (лауреат)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Донецк</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Московская область</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Хотьково</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>МБОУ 32</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>01.08.2025</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01.08.2025</t>
+          <t>АХПК</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Поисковые системы (Google, Яндекс)</t>
+          <t>02.07.2025</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>+7-949-455-38-17</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Рекомендация друзей/знакомых</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Виталина</t>
+          <t>+7-910-180-79-21</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>+7-900-261-01-40</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>2d002</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Оксана</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>+7-910-180-79-22</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Жена Алексея Владимировича К.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,88 +773,719 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Королёва</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93214512</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Заочная</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>245</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №32"</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>03.07.2025</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>03.07.2025</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>+7-949-110-10-10</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>id123456789</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93214519</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>178</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Инвалид III группы</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Луганская народная республика</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Луганск</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>МБОУ "Лицей №1"</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>04.07.2025</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>04.07.2025</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>+7-949-212-12-12</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>d123456781</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>+7-949-212-12-13</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93214518</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Заочная</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>191</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ребенок участника СВО</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Луганская народная республика</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Луганск</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>МБОУ "Лицей №1"</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>04.07.2025</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>04.07.2025</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>+7-949-212-12-14</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>+7-949-212-12-13</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Воронина</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Маргарита</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Алексеевна</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93214516</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>210</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Волонтер (более 100 часов)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>05.07.2025</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>05.07.2025</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>+7-949-312-12-12</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>id123412341</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Виталина</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Бабушка</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>+7-949-312-12-14</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Родина</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Полина</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93214515</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>204</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ГТО (бронзовый знак)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Запорожская область</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Мелитополь</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №1"</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>06.07.2025</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>06.07.2025</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Рекомендация друзей/знакомых</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>+7-949-422-42-42</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Брат</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>+7-949-422-42-43</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Коротков</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Павлович</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93214514</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>232</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Ростовская область</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Таганрог</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №34"</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>08.07.2025</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>08.07.2025</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>+7-949-455-45-45</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>id123451234</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>+7-949-455-45-46</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Коваленко</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Богдан</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Русланович</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93214513</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Очно-заочная</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>257</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ГТО (золотой знак)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №58"</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10.07.2025</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>10.07.2025</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>+7-949-455-38-17</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>id454545455</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>Мария</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Сергеевна</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09.03.01</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>300</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ГТО (золотой знак)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Макеевка</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>МБОУ Школа 21</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>19.07.2025</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>20.07.2025</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Социальные сети</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>+7-910-180-79-21</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Оксана</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>+7-910-180-79-21</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Лучшая самая</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>+7-949-455-38-18</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Список_студентов.xlsx
+++ b/Список_студентов.xlsx
@@ -577,11 +577,11 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Золотая медаль</t>
+          <t>Отличник (аттестат с отличием)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Заочная</t>
+          <t>Очная</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>МБОУ "СШ №32"</t>
+          <t>МБОУ "СШ №58"</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Заочная</t>
+          <t>Очная</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1283,22 +1283,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Коротков</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Никита</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Павлович</t>
+          <t>Русланович</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93214514</t>
+          <t>93214513</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1307,66 +1307,66 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Золотая медаль</t>
+          <t>ГТО (серебряный знак)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Ростовская область</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Таганрог</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>МБОУ "СШ №34"</t>
+          <t>МБОУ "СШ №58"</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>08.07.2025</t>
+          <t>10.07.2025</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>08.07.2025</t>
+          <t>10.07.2025</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>День открытых дверей</t>
+          <t>Социальные сети</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>+7-949-455-45-45</t>
+          <t>+7-949-455-38-17</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>id123451234</t>
+          <t>id454545455</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Екатерина</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>+7-949-455-45-46</t>
+          <t>+7-949-455-38-18</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1389,35 +1389,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Петрова</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Марина</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Русланович</t>
+          <t>Сергеевна</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93214513</t>
+          <t>93214520</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Очно-заочная</t>
+          <t>Очная</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ГТО (золотой знак)</t>
+          <t>ГТО (серебряный знак)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.07.2025</t>
+          <t>15.07.2025</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10.07.2025</t>
+          <t>15.07.2025</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1462,17 +1462,17 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>+7-949-455-38-17</t>
+          <t>+7-949-585-85-85</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>id454545455</t>
+          <t>id4567894567</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Мария</t>
+          <t>Александра</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1482,10 +1482,14 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>+7-949-455-38-18</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+          <t>+7-949-585-85-86</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Список_студентов.xlsx
+++ b/Список_студентов.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1488,6 +1488,2260 @@
       <c r="V10" t="inlineStr">
         <is>
           <t>тест</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Смирнов</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Олегович</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93214521</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>231</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ГТО (золотой знак)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Дебальцево</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №4"</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>15.07.2025</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>15.07.2025</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>+7-949-312-48-72</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Олег</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>+7-949-312-48-73</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93214522</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>205</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15.06.2025</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>20.05.2025</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-11</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>vk.com/ivanov_alex</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-11</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Отличник учебы</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Петрова</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93214523</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>185</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №58"</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18.06.2025</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>22.05.2025</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-12</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>vk.com/petrova_m</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-12</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93214524</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>175</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Многодетная семья</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Горловка</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №33"</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>20.06.2025</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Рекомендация учителей/родителей</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-13</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-13</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Нужно общежитие</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ковалева</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Викторовна</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93214525</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>252</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Отличник (аттестат с отличием)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-14</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>vk.com/kovaleva_anna</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-14</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Активистка</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Морозов</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93214526</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>208</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Енакиево</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>МБОУ "Лицей №7"</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>25.06.2025</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-15</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>vk.com/morozov_igor</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-15</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Требуется общежитие</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Новикова</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Дмитриевна</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93214527</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>258</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Сирота</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Макеевка</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №48"</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Рекламные материалы</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-16</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>vk.com/novikova_kate</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Хорошая успеваемость</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Волков</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93214528</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>245</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Участник СВО</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Харцызск</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>МБОУ "Школа №18"</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>30.06.2025</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>03.06.2025</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-17</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-17</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Нужно общежитие из Харцызска</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Соколова</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Игоревна</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93214529</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>280</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>05.06.2025</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-18</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>vk.com/sokolova_d</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Людмила</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-18</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Золотая медалистка, отличные результаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Лебедев</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Артем</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93214529</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>260</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ребенок участника СВО</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Херсонская область</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Новая Каховка</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №33"</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>05.07.2025</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>08.06.2025</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Рекомендация друзей/знакомых</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-19</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>vk.com/lebedev_art</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Михаил</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-19</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Многодетная семья, требуется общежитие</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Козлова</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Виктория</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Алексеевна</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93214530</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>253</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Московская область</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №58"</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>08.07.2025</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Поисковые системы (Google, Яндекс)</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-20</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>vk.com/kozlova_vika</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-20</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Хорошие результаты по профильным предметам</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Федоров</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93214531</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>278</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10.07.2025</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Сайт учебного заведения</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-21</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-21</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Интерес к IT-технологиям</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Павлова</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Полина</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Максимовна</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93214532</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>245</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Целевое обучение</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Запорожская область</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Мелитополь</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>МБОУ "Лицей №1"</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>12.07.2025</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-22</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>vk.com/pavlova_p</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Светлана</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-22</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Нужна помощь с общежитием</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Семенов</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Павлович</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93214533</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Очно-заочная</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>208</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ГТО (золотой знак)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Московская область</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №33"</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>15.07.2025</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>15.06.2025</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Рекомендация друзей/знакомых</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-23</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>vk.com/semenov_egor</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-23</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Активный участник спортивных мероприятий, нужно общежитие</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Егорова</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>София</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Артемовна</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93214534</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>197</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Снежное</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №1"</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>18.07.2024</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>18.06.2024</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-24</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>vk.com/egorova_sofi</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-24</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Романов</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Кирилл</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93214535</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>278</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Победитель олимпиады (региональная)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Ростовская область</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Таганрог</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>МБОУ "Школа №18"</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>20.07.2025</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>20.06.2025</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-25</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-25</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Требуется место в общежитии</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Захарова</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Алина</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93214536</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>211</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Творческие достижения (лауреат)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Луганская народная республика</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Алчевск</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №58"</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>22.07.2025</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Рекламные материалы</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-26</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>vk.com/zakharova_alina</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-26</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Творчески одаренная</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Борисов</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Игоревич</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93214537</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>173</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Волонтер (более 100 часов)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Енакиево</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>МБОУ "Лицей №7 г. Енакиево"</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>25.07.2025</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>СМИ (газеты, телевидение)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-27</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>vk.com/borisov_denis</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-27</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Васильева</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Арина</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93214538</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Без льгот</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Донецк</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №6"</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>28.07.2025</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>25.06.2025</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-28</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>vk.com/vasilyeva_arina</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-28</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Отличные результаты ЕГЭ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Григорьев</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Тимур</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Павлович</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93214539</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Многодетная семья</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Донецкая народная республика</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Горловка</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>МБОУ "Гимназия №33 г. Горловки"</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-29</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Отец</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-29</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Из многодетной семьи, нужно общежитие</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Николаева</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93214540</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Очная</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>239</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Золотая медаль</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Воронежская область</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Воронеж</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>МБОУ "СШ №58"</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>01.08.2025</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Социальные сети</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>+7-949-234-56-30</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>vk.com/nikolaeva_kris</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Мать</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>+7-949-123-45-30</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Золотая медалистка, высокие баллы</t>
         </is>
       </c>
     </row>
